--- a/details/worktimes.xlsx
+++ b/details/worktimes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files (x86)\Programming\VS code\Bet servus\details\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{476843A4-366F-4E26-82CC-A2A0C793B718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E899C45-6EDC-4F8D-839F-40CA69327073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36846866-D087-4854-A8AB-FEDE182B4FBC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Projekt rész</t>
   </si>
@@ -69,14 +69,27 @@
   </si>
   <si>
     <t>email küldés nodemailer-rel</t>
+  </si>
+  <si>
+    <t>email html design/megvalósítás</t>
+  </si>
+  <si>
+    <t>Molnár</t>
+  </si>
+  <si>
+    <t>Fábián</t>
+  </si>
+  <si>
+    <t>regisztráció backend/titkosítás</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0\ &quot;óra&quot;"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0\ &quot;óra&quot;"/>
+    <numFmt numFmtId="165" formatCode="0\ \ó\r\a"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -140,13 +153,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -463,85 +476,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47AE056-6196-4814-B5F2-D4174231B88D}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="20.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="18.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5">
+        <f ca="1">SUMIF(B:C,G3,$C$1)+SUMIF(B:C,$B$3,$C$1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" ref="H4:H6" ca="1" si="0">SUMIF(B:C,G4,$C$1)+SUMIF(B:C,$B$3,$C$1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4">
         <v>1</v>
       </c>
     </row>

--- a/details/worktimes.xlsx
+++ b/details/worktimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files (x86)\Programming\VS code\Bet servus\details\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E899C45-6EDC-4F8D-839F-40CA69327073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853A23D4-3459-40D6-8569-9EAD38AC4BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36846866-D087-4854-A8AB-FEDE182B4FBC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Projekt rész</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>regisztráció backend/titkosítás</t>
+  </si>
+  <si>
+    <t>elfelejtett jelszó backend</t>
+  </si>
+  <si>
+    <t>elfelejtett jelszó frontend</t>
   </si>
 </sst>
 </file>
@@ -476,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47AE056-6196-4814-B5F2-D4174231B88D}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -532,7 +538,7 @@
       </c>
       <c r="H3" s="5">
         <f ca="1">SUMIF(B:C,G3,$C$1)+SUMIF(B:C,$B$3,$C$1)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -550,7 +556,7 @@
       </c>
       <c r="H4" s="5">
         <f t="shared" ref="H4:H6" ca="1" si="0">SUMIF(B:C,G4,$C$1)+SUMIF(B:C,$B$3,$C$1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -594,7 +600,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -608,6 +614,28 @@
         <v>4</v>
       </c>
       <c r="C8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4">
         <v>1</v>
       </c>
     </row>

--- a/details/worktimes.xlsx
+++ b/details/worktimes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files (x86)\Programming\VS code\Bet servus\details\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853A23D4-3459-40D6-8569-9EAD38AC4BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E72456-E99F-4C6A-9B9D-EE7ACA869ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36846866-D087-4854-A8AB-FEDE182B4FBC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>Projekt rész</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>elfelejtett jelszó frontend</t>
+  </si>
+  <si>
+    <t>slot machine v1 frontend/backend</t>
+  </si>
+  <si>
+    <t>terv documentálás</t>
+  </si>
+  <si>
+    <t>játékok adatgyűjtése</t>
   </si>
 </sst>
 </file>
@@ -482,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47AE056-6196-4814-B5F2-D4174231B88D}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -538,15 +547,15 @@
       </c>
       <c r="H3" s="5">
         <f ca="1">SUMIF(B:C,G3,$C$1)+SUMIF(B:C,$B$3,$C$1)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4">
         <v>2</v>
@@ -561,25 +570,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -597,46 +603,79 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C9" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/details/worktimes.xlsx
+++ b/details/worktimes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files (x86)\Programming\VS code\Bet servus\details\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E72456-E99F-4C6A-9B9D-EE7ACA869ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359E1E17-88AD-4F24-9049-24F23A751EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36846866-D087-4854-A8AB-FEDE182B4FBC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>Projekt rész</t>
   </si>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47AE056-6196-4814-B5F2-D4174231B88D}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -547,7 +547,7 @@
       </c>
       <c r="H3" s="5">
         <f ca="1">SUMIF(B:C,G3,$C$1)+SUMIF(B:C,$B$3,$C$1)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -676,6 +676,17 @@
       </c>
       <c r="C13" s="4">
         <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
